--- a/FieldData/2015/xlsx_analysis/02-009 Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/02-009 Field Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F9DF18C62B95E521395BF675AA600408551348AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71EECD03-8F60-4BFE-8F6C-94C98B47B699}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F9DF18C62B95E521395BF675AA600408551348AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97E3F8EF-1C5B-4749-90D0-C44A51F27674}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="915" windowWidth="17460" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MARSH" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="113">
   <si>
     <t>PLOT</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>tall fescue</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
   <si>
     <t>I</t>
@@ -374,6 +371,9 @@
   </si>
   <si>
     <t>MAX_LH</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -873,12 +873,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2314,13 +2312,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IO148"/>
+  <dimension ref="A1:IF148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C116" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2333,34 +2331,34 @@
     <col min="6" max="6" width="4.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.3984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="1" customWidth="1"/>
-    <col min="9" max="249" width="8.59765625" style="1" customWidth="1"/>
-    <col min="250" max="16384" width="8.59765625" style="2"/>
+    <col min="9" max="240" width="8.59765625" style="1" customWidth="1"/>
+    <col min="241" max="16384" width="8.59765625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>111</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2392,22 +2390,22 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="F3" s="15">
-        <v>0.5</v>
+        <v>72</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="16"/>
     </row>
@@ -2416,22 +2414,22 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>92</v>
+      <c r="D4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="F4" s="15">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="H4" s="16"/>
     </row>
@@ -2440,20 +2438,23 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="F5" s="15">
-        <f>79</f>
-        <v>79</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2461,7 +2462,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="12">
         <v>2</v>
@@ -2473,7 +2474,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="15">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>5</v>
@@ -2485,22 +2486,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>102</v>
+      <c r="D7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="F7" s="15">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="16"/>
     </row>
@@ -2509,22 +2510,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
+      <c r="D8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="F8" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="16"/>
     </row>
@@ -2533,22 +2534,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="12">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>35</v>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="15">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="H9" s="16"/>
     </row>
@@ -2557,22 +2558,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C10" s="12">
-        <v>2</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>92</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F10" s="15">
-        <v>0.5</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="H10" s="16"/>
     </row>
@@ -2581,20 +2582,23 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F11" s="15">
-        <f>25</f>
-        <v>25</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2602,19 +2606,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="F12" s="15">
-        <v>13</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>5</v>
@@ -2626,22 +2630,22 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C13" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="F13" s="16">
+        <v>46</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="H13" s="16"/>
     </row>
@@ -2650,22 +2654,22 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C14" s="12">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="15">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="16">
         <v>0.5</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="16"/>
     </row>
@@ -2674,22 +2678,22 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C15" s="12">
-        <v>2</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="16">
         <v>0.5</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>99</v>
+      <c r="G15" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="H15" s="16"/>
     </row>
@@ -2698,20 +2702,23 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C16" s="12">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="16">
         <v>2</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="15">
-        <f>100-13-1.5</f>
-        <v>85.5</v>
-      </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2719,21 +2726,21 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="15">
-        <v>13</v>
-      </c>
-      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="16">
+        <v>57</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="16"/>
@@ -2743,22 +2750,22 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
+        <v>83</v>
+      </c>
+      <c r="F18" s="16">
+        <v>15</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="H18" s="16"/>
     </row>
@@ -2767,22 +2774,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="16">
+        <v>6</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="H19" s="16"/>
     </row>
@@ -2791,22 +2798,22 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="12">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>100</v>
+        <v>48</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="H20" s="16"/>
     </row>
@@ -2815,19 +2822,23 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="12">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="15">
-        <v>85.5</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2835,21 +2846,21 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="12">
-        <v>2</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="15">
-        <v>7</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="16">
+        <v>6</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="16"/>
@@ -2859,22 +2870,22 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="12">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="15">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
+        <v>95</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="H23" s="16"/>
     </row>
@@ -2883,22 +2894,22 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="12">
-        <v>2</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="H24" s="16"/>
     </row>
@@ -2906,69 +2917,72 @@
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="12">
-        <v>2</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="16"/>
+      <c r="B25" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="21">
+        <v>10</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="B26" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="21">
         <v>2</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="16"/>
+      <c r="G26" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="12">
         <v>2</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E27" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F27" s="15">
-        <f>100-7-2.5</f>
-        <v>90.5</v>
-      </c>
-      <c r="G27" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2976,22 +2990,22 @@
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="12">
         <v>2</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>30</v>
+      <c r="D28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F28" s="15">
-        <v>40</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="H28" s="16"/>
     </row>
@@ -3000,22 +3014,22 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="12">
         <v>2</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F29" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="H29" s="16"/>
     </row>
@@ -3024,22 +3038,22 @@
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C30" s="12">
         <v>2</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>101</v>
+      <c r="D30" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="F30" s="15">
         <v>0.5</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="H30" s="16"/>
     </row>
@@ -3048,22 +3062,22 @@
         <v>6</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31" s="12">
-        <v>2</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="F31" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="H31" s="16"/>
     </row>
@@ -3072,20 +3086,23 @@
         <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C32" s="12">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="16">
         <v>2</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="15">
-        <f>100-42</f>
-        <v>58</v>
-      </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="19" t="s">
+        <v>99</v>
+      </c>
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -3093,22 +3110,22 @@
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="12">
-        <v>2</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="15">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="16">
+        <v>8</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="H33" s="16"/>
     </row>
@@ -3117,22 +3134,22 @@
         <v>6</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="12">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="15">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="F34" s="16">
+        <v>3</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="H34" s="16"/>
     </row>
@@ -3141,22 +3158,22 @@
         <v>6</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="12">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="16">
+        <v>1</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="H35" s="16"/>
     </row>
@@ -3165,46 +3182,46 @@
         <v>6</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="12">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="C36" s="19">
+        <v>1</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="16">
+        <v>5</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="19">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="12">
-        <v>2</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>4</v>
+      <c r="F37" s="16">
+        <v>3</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="H37" s="16"/>
     </row>
@@ -3213,20 +3230,23 @@
         <v>6</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="12">
-        <v>2</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="15">
-        <f>100-1.5-4</f>
-        <v>94.5</v>
-      </c>
-      <c r="G38" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="16">
+        <v>17</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>99</v>
+      </c>
       <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3234,22 +3254,22 @@
         <v>6</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="12">
-        <v>2</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="15">
-        <v>3</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="C39" s="19">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="H39" s="16"/>
     </row>
@@ -3258,22 +3278,22 @@
         <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="12">
+        <v>23</v>
+      </c>
+      <c r="C40" s="19">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="16">
         <v>2</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>4</v>
+      <c r="G40" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="H40" s="16"/>
     </row>
@@ -3282,22 +3302,22 @@
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="12">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="C41" s="19">
+        <v>1</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="F41" s="16">
+        <v>3</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="H41" s="16"/>
     </row>
@@ -3306,92 +3326,95 @@
         <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="12">
-        <v>2</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="21">
+        <v>1</v>
+      </c>
+      <c r="G42" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="16"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="12">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H43" s="16"/>
+      <c r="B43" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="21">
+        <v>1</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="12">
-        <v>2</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="B44" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="21">
+        <v>6</v>
+      </c>
+      <c r="G44" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H44" s="16"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C45" s="12">
         <v>2</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="5" t="s">
-        <v>33</v>
+      <c r="D45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F45" s="15">
-        <f>100-5.5</f>
-        <v>94.5</v>
-      </c>
-      <c r="G45" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3399,22 +3422,22 @@
         <v>6</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C46" s="12">
-        <v>3</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="F46" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="H46" s="16"/>
     </row>
@@ -3423,16 +3446,16 @@
         <v>6</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C47" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F47" s="15">
         <v>1</v>
@@ -3447,19 +3470,19 @@
         <v>6</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C48" s="12">
-        <v>3</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F48" s="15">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -3471,19 +3494,19 @@
         <v>6</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C49" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="F49" s="15">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -3495,19 +3518,19 @@
         <v>6</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C50" s="12">
-        <v>3</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>45</v>
+        <v>2</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F50" s="15">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>4</v>
@@ -3519,19 +3542,19 @@
         <v>6</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C51" s="12">
-        <v>3</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F51" s="15">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>4</v>
@@ -3543,19 +3566,19 @@
         <v>6</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C52" s="12">
-        <v>3</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>87</v>
+        <v>2</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F52" s="15">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -3567,22 +3590,22 @@
         <v>6</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C53" s="12">
-        <v>3</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F53" s="15">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H53" s="16"/>
     </row>
@@ -3591,22 +3614,22 @@
         <v>6</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C54" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F54" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H54" s="16"/>
     </row>
@@ -3615,22 +3638,22 @@
         <v>6</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C55" s="12">
-        <v>3</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="F55" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="H55" s="16"/>
     </row>
@@ -3639,95 +3662,91 @@
         <v>6</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C56" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>53</v>
+        <v>90</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F56" s="15">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="16">
-        <v>22</v>
-      </c>
+      <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C57" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F57" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="16">
-        <v>25</v>
-      </c>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C58" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F58" s="15">
         <v>0.5</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C59" s="12">
-        <v>3</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F59" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -3739,16 +3758,16 @@
         <v>6</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="12">
-        <v>3</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="F60" s="15">
         <v>0.5</v>
@@ -3763,20 +3782,23 @@
         <v>6</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="12">
-        <v>3</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="5" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F61" s="15">
-        <f>100-SUM(F46:F60)</f>
-        <v>7.5</v>
-      </c>
-      <c r="G61" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3784,22 +3806,22 @@
         <v>6</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="12">
         <v>3</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F62" s="15">
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H62" s="16"/>
     </row>
@@ -3808,7 +3830,7 @@
         <v>6</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="12">
         <v>3</v>
@@ -3819,36 +3841,34 @@
       <c r="E63" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F63" s="16">
-        <v>20</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H63" s="16">
-        <v>11</v>
-      </c>
+      <c r="F63" s="15">
+        <v>15</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="12">
         <v>3</v>
       </c>
       <c r="D64" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F64" s="16">
-        <v>3</v>
-      </c>
-      <c r="G64" s="19" t="s">
+      <c r="F64" s="15">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H64" s="16"/>
@@ -3858,21 +3878,21 @@
         <v>6</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="12">
         <v>3</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G65" s="19" t="s">
+      <c r="F65" s="15">
+        <v>2</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H65" s="16"/>
@@ -3882,7 +3902,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="12">
         <v>3</v>
@@ -3891,12 +3911,12 @@
         <v>46</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F66" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G66" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="15">
+        <v>11</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H66" s="16"/>
@@ -3906,21 +3926,21 @@
         <v>6</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" s="12">
         <v>3</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="D67" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F67" s="16">
-        <v>20</v>
-      </c>
-      <c r="G67" s="19" t="s">
+      <c r="F67" s="15">
+        <v>15</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H67" s="16"/>
@@ -3930,70 +3950,74 @@
         <v>6</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" s="12">
         <v>3</v>
       </c>
-      <c r="D68" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F68" s="16">
-        <v>2</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H68" s="16"/>
+      <c r="D68" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F68" s="15">
+        <v>5</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" s="16">
+        <v>22</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" s="12">
         <v>3</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F69" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H69" s="16"/>
+      <c r="D69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="15">
+        <v>10</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" s="16">
+        <v>25</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" s="12">
         <v>3</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F70" s="16">
-        <v>2</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>103</v>
+        <v>60</v>
+      </c>
+      <c r="F70" s="15">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H70" s="16"/>
     </row>
@@ -4002,23 +4026,22 @@
         <v>6</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71" s="12">
         <v>3</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F71" s="16">
-        <f>100-SUM(F62:F70)-F72-0.5</f>
-        <v>46</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H71" s="16"/>
     </row>
@@ -4032,15 +4055,21 @@
       <c r="C72" s="12">
         <v>3</v>
       </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="3" t="s">
-        <v>33</v>
+      <c r="D72" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F72" s="16">
-        <v>4</v>
-      </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="16">
+        <v>11</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
@@ -4052,17 +4081,17 @@
       <c r="C73" s="12">
         <v>3</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>80</v>
+      <c r="D73" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="F73" s="16">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H73" s="16"/>
     </row>
@@ -4076,17 +4105,17 @@
       <c r="C74" s="12">
         <v>3</v>
       </c>
-      <c r="D74" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>30</v>
+      <c r="D74" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F74" s="16">
         <v>0.5</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H74" s="16"/>
     </row>
@@ -4095,22 +4124,22 @@
         <v>6</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C75" s="12">
         <v>3</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="F75" s="16">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H75" s="16"/>
     </row>
@@ -4119,22 +4148,22 @@
         <v>6</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76" s="12">
         <v>3</v>
       </c>
-      <c r="D76" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>42</v>
+      <c r="D76" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F76" s="16">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="H76" s="16"/>
     </row>
@@ -4143,19 +4172,19 @@
         <v>6</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" s="12">
         <v>3</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>32</v>
+      <c r="D77" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="F77" s="16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G77" s="19" t="s">
         <v>4</v>
@@ -4172,14 +4201,14 @@
       <c r="C78" s="12">
         <v>3</v>
       </c>
-      <c r="D78" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>102</v>
+      <c r="D78" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F78" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>4</v>
@@ -4196,17 +4225,17 @@
       <c r="C79" s="12">
         <v>3</v>
       </c>
-      <c r="D79" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>30</v>
+      <c r="D79" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="F79" s="16">
         <v>2</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H79" s="16"/>
     </row>
@@ -4337,22 +4366,22 @@
         <v>6</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="12">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="C85" s="19">
+        <v>1</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F85" s="16">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="H85" s="16"/>
     </row>
@@ -4361,19 +4390,23 @@
         <v>6</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="12">
-        <v>3</v>
-      </c>
-      <c r="D86" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C86" s="19">
+        <v>1</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="E86" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F86" s="16">
-        <v>7</v>
-      </c>
-      <c r="G86" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="H86" s="16"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -4381,23 +4414,22 @@
         <v>6</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="12">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="C87" s="19">
+        <v>1</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F87" s="16">
-        <f>100-SUM(F75:F86)</f>
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H87" s="16"/>
     </row>
@@ -4412,13 +4444,13 @@
         <v>1</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F88" s="16">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G88" s="19" t="s">
         <v>4</v>
@@ -4435,17 +4467,17 @@
       <c r="C89" s="19">
         <v>1</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>62</v>
+      <c r="D89" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F89" s="16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H89" s="16"/>
     </row>
@@ -4460,13 +4492,13 @@
         <v>1</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="F90" s="16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G90" s="19" t="s">
         <v>4</v>
@@ -4478,19 +4510,19 @@
         <v>6</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C91" s="19">
         <v>1</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F91" s="16">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G91" s="19" t="s">
         <v>4</v>
@@ -4502,22 +4534,22 @@
         <v>6</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C92" s="19">
         <v>1</v>
       </c>
-      <c r="D92" s="10" t="s">
-        <v>82</v>
+      <c r="D92" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="F92" s="16">
         <v>15</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H92" s="16"/>
     </row>
@@ -4526,22 +4558,22 @@
         <v>6</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C93" s="19">
         <v>1</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>66</v>
+      <c r="D93" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F93" s="16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H93" s="16"/>
     </row>
@@ -4550,22 +4582,22 @@
         <v>6</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C94" s="19">
         <v>1</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F94" s="16">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H94" s="16"/>
     </row>
@@ -4574,19 +4606,19 @@
         <v>6</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C95" s="19">
         <v>1</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>69</v>
+      <c r="D95" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="F95" s="16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G95" s="19" t="s">
         <v>4</v>
@@ -4598,22 +4630,22 @@
         <v>6</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C96" s="19">
         <v>1</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>20</v>
+      <c r="D96" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F96" s="16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H96" s="16"/>
     </row>
@@ -4622,46 +4654,48 @@
         <v>6</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C97" s="19">
         <v>1</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>71</v>
+      <c r="D97" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F97" s="16">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G97" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H97" s="16"/>
+      <c r="H97" s="16">
+        <v>109</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C98" s="19">
         <v>1</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="F98" s="16">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="H98" s="16"/>
     </row>
@@ -4670,19 +4704,19 @@
         <v>6</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C99" s="19">
         <v>1</v>
       </c>
-      <c r="D99" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>53</v>
+      <c r="D99" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F99" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G99" s="19" t="s">
         <v>4</v>
@@ -4694,447 +4728,463 @@
         <v>6</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C100" s="19">
         <v>1</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F100" s="16">
-        <v>1</v>
-      </c>
-      <c r="G100" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="16"/>
+        <v>104</v>
+      </c>
+      <c r="F100" s="21">
+        <v>3</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="21"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C101" s="19">
         <v>1</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F101" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G101" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="16"/>
+      <c r="D101" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F101" s="21">
+        <v>4</v>
+      </c>
+      <c r="G101" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="21"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C102" s="19">
         <v>1</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F102" s="16">
-        <v>6</v>
-      </c>
-      <c r="G102" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="16"/>
+        <v>106</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F102" s="21">
+        <v>1</v>
+      </c>
+      <c r="G102" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="21"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C103" s="19">
         <v>1</v>
       </c>
-      <c r="D103" s="7"/>
-      <c r="E103" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F103" s="16">
-        <v>10</v>
-      </c>
-      <c r="G103" s="19"/>
-      <c r="H103" s="16"/>
+      <c r="D103" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F103" s="21">
+        <v>1</v>
+      </c>
+      <c r="G103" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H103" s="21"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C104" s="19">
         <v>1</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="16">
-        <v>80</v>
-      </c>
-      <c r="G104" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H104" s="16"/>
+      <c r="D104" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F104" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H104" s="21"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>22</v>
+      <c r="B105" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="C105" s="19">
         <v>1</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F105" s="16">
-        <v>5</v>
-      </c>
-      <c r="G105" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H105" s="16"/>
+      <c r="D105" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="21">
+        <v>15</v>
+      </c>
+      <c r="G105" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H105" s="21">
+        <v>90</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>22</v>
+      <c r="B106" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="C106" s="19">
         <v>1</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F106" s="16">
-        <v>3</v>
-      </c>
-      <c r="G106" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H106" s="16"/>
+      <c r="D106" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F106" s="21">
+        <v>1</v>
+      </c>
+      <c r="G106" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H106" s="21"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>22</v>
+      <c r="B107" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="C107" s="19">
         <v>1</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F107" s="16">
-        <v>15</v>
-      </c>
-      <c r="G107" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H107" s="16"/>
+      <c r="D107" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F107" s="21">
+        <v>40</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H107" s="21">
+        <v>96</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="19">
+        <v>1</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F108" s="21">
         <v>22</v>
       </c>
-      <c r="C108" s="19">
-        <v>1</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F108" s="16">
-        <v>1</v>
-      </c>
-      <c r="G108" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H108" s="16"/>
+      <c r="G108" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H108" s="21"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>22</v>
+      <c r="B109" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="C109" s="19">
         <v>1</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>61</v>
+      <c r="D109" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F109" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G109" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H109" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="F109" s="21">
+        <v>3</v>
+      </c>
+      <c r="G109" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H109" s="21"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>22</v>
+      <c r="B110" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="C110" s="19">
         <v>1</v>
       </c>
-      <c r="D110" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F110" s="16">
+      <c r="D110" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F110" s="21">
         <v>0.5</v>
       </c>
-      <c r="G110" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H110" s="16"/>
+      <c r="G110" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H110" s="21"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>22</v>
+      <c r="B111" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="C111" s="19">
         <v>1</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F111" s="16">
-        <v>1</v>
-      </c>
-      <c r="G111" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H111" s="16"/>
+      <c r="D111" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F111" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H111" s="21"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>22</v>
+      <c r="B112" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="C112" s="19">
         <v>1</v>
       </c>
-      <c r="D112" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F112" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G112" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H112" s="16"/>
+      <c r="D112" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="21">
+        <v>90</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H112" s="21">
+        <v>110</v>
+      </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>22</v>
+      <c r="B113" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="C113" s="19">
         <v>1</v>
       </c>
-      <c r="D113" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F113" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G113" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H113" s="16"/>
+      <c r="D113" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F113" s="21">
+        <v>10</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H113" s="21"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>23</v>
+      <c r="B114" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="C114" s="19">
         <v>1</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F114" s="16">
-        <v>17</v>
-      </c>
-      <c r="G114" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H114" s="16"/>
+      <c r="D114" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E114" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F114" s="21">
+        <v>1</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H114" s="21"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>23</v>
+      <c r="B115" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="C115" s="19">
         <v>1</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F115" s="16">
-        <v>7</v>
-      </c>
-      <c r="G115" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H115" s="16"/>
+      <c r="D115" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F115" s="21">
+        <v>1</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H115" s="21"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>23</v>
+      <c r="B116" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C116" s="19">
         <v>1</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F116" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G116" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H116" s="16"/>
+      <c r="D116" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="21">
+        <v>95</v>
+      </c>
+      <c r="G116" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H116" s="21">
+        <v>127</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>23</v>
+      <c r="B117" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C117" s="19">
         <v>1</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F117" s="16">
-        <v>2</v>
-      </c>
-      <c r="G117" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H117" s="16"/>
+      <c r="D117" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F117" s="21">
+        <v>9</v>
+      </c>
+      <c r="G117" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H117" s="21"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C118" s="19">
-        <v>1</v>
-      </c>
-      <c r="D118" s="7"/>
-      <c r="E118" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F118" s="16">
-        <v>45</v>
-      </c>
-      <c r="G118" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="C118" s="12">
+        <v>2</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F118" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H118" s="16"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -5142,20 +5192,23 @@
         <v>6</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="19">
-        <v>1</v>
-      </c>
-      <c r="D119" s="7"/>
-      <c r="E119" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F119" s="16">
-        <f>100-45-2-0.5-7-17</f>
-        <v>28.5</v>
-      </c>
-      <c r="G119" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="C119" s="12">
+        <v>2</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F119" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H119" s="16"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -5163,48 +5216,46 @@
         <v>6</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C120" s="19">
-        <v>1</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="16">
-        <v>85</v>
-      </c>
-      <c r="G120" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H120" s="16">
-        <v>109</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C120" s="12">
+        <v>2</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F120" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H120" s="16"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C121" s="19">
-        <v>1</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F121" s="16">
-        <v>3</v>
-      </c>
-      <c r="G121" s="19" t="s">
-        <v>100</v>
+        <v>11</v>
+      </c>
+      <c r="C121" s="12">
+        <v>2</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F121" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H121" s="16"/>
     </row>
@@ -5213,21 +5264,21 @@
         <v>6</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122" s="19">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C122" s="12">
+        <v>2</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F122" s="16">
-        <v>15</v>
-      </c>
-      <c r="G122" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F122" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H122" s="16"/>
@@ -5237,21 +5288,21 @@
         <v>6</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" s="19">
-        <v>1</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F123" s="16">
+        <v>15</v>
+      </c>
+      <c r="C123" s="12">
         <v>2</v>
       </c>
-      <c r="G123" s="19" t="s">
+      <c r="D123" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F123" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G123" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H123" s="16"/>
@@ -5261,115 +5312,115 @@
         <v>6</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="19">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C124" s="12">
+        <v>3</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F124" s="21">
+        <v>36</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F124" s="15">
         <v>3</v>
       </c>
-      <c r="G124" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H124" s="21"/>
+      <c r="G124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H124" s="16"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C125" s="19">
-        <v>1</v>
-      </c>
-      <c r="D125" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E125" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F125" s="21">
-        <v>1</v>
-      </c>
-      <c r="G125" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H125" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="C125" s="12">
+        <v>3</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" s="15">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C126" s="19">
-        <v>1</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F126" s="21">
-        <v>4</v>
-      </c>
-      <c r="G126" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H126" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="C126" s="12">
+        <v>3</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F126" s="16">
+        <v>2</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H126" s="16"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C127" s="19">
-        <v>1</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="F127" s="21">
-        <v>1</v>
-      </c>
-      <c r="G127" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H127" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="C127" s="12">
+        <v>3</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" s="16">
+        <v>1</v>
+      </c>
+      <c r="G127" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H127" s="16"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>25</v>
+      <c r="B128" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="C128" s="19">
         <v>1</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E128" s="20" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F128" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" s="20" t="s">
         <v>4</v>
@@ -5381,487 +5432,455 @@
         <v>6</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129" s="19">
-        <v>1</v>
-      </c>
-      <c r="D129" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E129" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F129" s="21">
+        <v>8</v>
+      </c>
+      <c r="C129" s="12">
+        <v>2</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F129" s="15">
         <v>0.5</v>
       </c>
-      <c r="G129" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H129" s="21"/>
+      <c r="G129" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H129" s="16"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B130" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C130" s="19">
-        <v>1</v>
-      </c>
-      <c r="D130" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E130" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F130" s="21">
-        <v>1</v>
-      </c>
-      <c r="G130" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="H130" s="21"/>
+      <c r="B130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="12">
+        <v>3</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F130" s="16">
+        <v>2</v>
+      </c>
+      <c r="G130" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H130" s="16"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B131" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C131" s="19">
-        <v>1</v>
-      </c>
-      <c r="D131" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E131" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="21">
-        <v>15</v>
-      </c>
-      <c r="G131" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H131" s="21">
-        <v>90</v>
-      </c>
+      <c r="B131" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="12">
+        <v>3</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F131" s="16">
+        <v>1</v>
+      </c>
+      <c r="G131" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H131" s="16"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="20" t="s">
-        <v>26</v>
+      <c r="B132" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C132" s="19">
         <v>1</v>
       </c>
-      <c r="D132" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E132" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F132" s="21">
-        <v>1</v>
-      </c>
-      <c r="G132" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H132" s="21"/>
+      <c r="D132" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F132" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H132" s="16"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B133" s="20" t="s">
-        <v>26</v>
+      <c r="B133" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C133" s="19">
         <v>1</v>
       </c>
-      <c r="D133" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F133" s="21">
-        <v>40</v>
-      </c>
-      <c r="G133" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H133" s="21">
-        <v>96</v>
-      </c>
+      <c r="D133" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F133" s="16">
+        <v>7</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H133" s="16"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C134" s="19">
-        <v>1</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F134" s="21">
-        <v>22</v>
-      </c>
-      <c r="G134" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H134" s="21"/>
+      <c r="B134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="12">
+        <v>2</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F134" s="15">
+        <v>79</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H134" s="16"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B135" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C135" s="19">
-        <v>1</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F135" s="21">
-        <v>3</v>
-      </c>
-      <c r="G135" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H135" s="21"/>
+      <c r="B135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="12">
+        <v>2</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F135" s="15">
+        <v>25</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H135" s="16"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B136" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C136" s="19">
-        <v>1</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E136" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F136" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G136" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H136" s="21"/>
+      <c r="B136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="12">
+        <v>2</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F136" s="15">
+        <v>85.5</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H136" s="16"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C137" s="19">
-        <v>1</v>
-      </c>
-      <c r="D137" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E137" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F137" s="21">
+      <c r="B137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="12">
         <v>2</v>
       </c>
-      <c r="G137" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="H137" s="21"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F137" s="15">
+        <v>85.5</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H137" s="16"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B138" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C138" s="19">
-        <v>1</v>
-      </c>
-      <c r="D138" s="22"/>
-      <c r="E138" s="20" t="s">
+      <c r="B138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="12">
+        <v>2</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F138" s="21">
-        <f>100-SUM(F130:F137)-F139-F140</f>
-        <v>5</v>
-      </c>
-      <c r="G138" s="20"/>
-      <c r="H138" s="21"/>
+      <c r="F138" s="15">
+        <v>90.5</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H138" s="16"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B139" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C139" s="19">
-        <v>1</v>
-      </c>
-      <c r="D139" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E139" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F139" s="21">
-        <v>10</v>
-      </c>
-      <c r="G139" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H139" s="21"/>
+      <c r="B139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="12">
+        <v>2</v>
+      </c>
+      <c r="D139" s="7"/>
+      <c r="E139" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F139" s="15">
+        <v>58</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H139" s="16"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C140" s="19">
-        <v>1</v>
-      </c>
-      <c r="D140" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E140" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F140" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G140" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H140" s="21"/>
+      <c r="B140" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="12">
+        <v>2</v>
+      </c>
+      <c r="D140" s="7"/>
+      <c r="E140" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F140" s="15">
+        <v>94.5</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H140" s="16"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B141" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C141" s="19">
-        <v>1</v>
-      </c>
-      <c r="D141" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E141" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F141" s="21">
-        <v>90</v>
-      </c>
-      <c r="G141" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H141" s="21">
-        <v>110</v>
-      </c>
+      <c r="B141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="12">
+        <v>2</v>
+      </c>
+      <c r="D141" s="7"/>
+      <c r="E141" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F141" s="15">
+        <v>94.5</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H141" s="16"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B142" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C142" s="19">
-        <v>1</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E142" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F142" s="21">
-        <v>10</v>
-      </c>
-      <c r="G142" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H142" s="21"/>
+      <c r="B142" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="12">
+        <v>3</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F142" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H142" s="16"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B143" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143" s="19">
-        <v>1</v>
-      </c>
-      <c r="D143" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E143" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F143" s="21">
-        <v>6</v>
-      </c>
-      <c r="G143" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H143" s="21"/>
+      <c r="B143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="12">
+        <v>3</v>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="E143" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F143" s="16">
+        <v>4</v>
+      </c>
+      <c r="G143" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H143" s="16"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B144" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C144" s="19">
-        <v>1</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E144" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F144" s="21">
-        <v>1</v>
-      </c>
-      <c r="G144" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H144" s="21"/>
+      <c r="B144" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="12">
+        <v>3</v>
+      </c>
+      <c r="D144" s="7"/>
+      <c r="E144" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F144" s="16">
+        <v>7</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H144" s="16"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B145" s="20" t="s">
-        <v>27</v>
+      <c r="B145" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C145" s="19">
         <v>1</v>
       </c>
-      <c r="D145" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E145" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F145" s="21">
-        <v>2</v>
-      </c>
-      <c r="G145" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H145" s="21"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F145" s="16">
+        <v>10</v>
+      </c>
+      <c r="G145" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H145" s="16"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B146" s="20" t="s">
-        <v>27</v>
+      <c r="B146" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C146" s="19">
         <v>1</v>
       </c>
-      <c r="D146" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F146" s="21">
-        <v>1</v>
-      </c>
-      <c r="G146" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H146" s="21"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F146" s="16">
+        <v>45</v>
+      </c>
+      <c r="G146" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H146" s="16"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B147" s="20" t="s">
-        <v>28</v>
+      <c r="B147" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C147" s="19">
         <v>1</v>
       </c>
-      <c r="D147" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E147" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" s="21">
-        <v>95</v>
-      </c>
-      <c r="G147" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H147" s="21">
-        <v>127</v>
-      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F147" s="16">
+        <v>28.5</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H147" s="16"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C148" s="19">
         <v>1</v>
       </c>
-      <c r="D148" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="D148" s="22"/>
       <c r="E148" s="20" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F148" s="21">
-        <v>9</v>
-      </c>
-      <c r="G148" s="23" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G148" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="H148" s="21"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IF148">
+    <sortCondition ref="G2:G148"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
